--- a/modules/manual_mri_annotaion_210317/Inter_final.xlsx
+++ b/modules/manual_mri_annotaion_210317/Inter_final.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\LovbeskyttetMapper\KFE-Litten Kathrine Bertelsen\GWAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavahlberg/Projects/allCardiacMRI/modules/manual_mri_annotaion_210317/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2302F581-99ED-48EA-A1E5-5B227237E4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{607BED38-057D-414E-A4B0-E924FCB4DBF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="3396" windowWidth="13212" windowHeight="8964" xr2:uid="{B340F09A-BF5A-4352-8553-E5D979914AE0}"/>
+    <workbookView xWindow="820" yWindow="3400" windowWidth="20940" windowHeight="12920" xr2:uid="{B340F09A-BF5A-4352-8553-E5D979914AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -566,7 +567,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -864,17 +865,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AE6F90-E038-41D4-8113-445C33852C56}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -923,7 +924,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -949,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -975,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -998,7 +999,7 @@
         <v>140.69999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>139.80000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>102.7</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>83</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>84</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>85</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>94</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>96</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>102</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>103</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>104</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>105</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>107</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>109</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>110</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>111</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>112</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>113</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>115</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>116</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>117</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>119</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>120</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>122</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>123</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>124</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>125</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>127</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>128</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>129</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>130</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>131</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>132</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>133</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>134</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>135</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>136</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>137</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>138</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>139</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>140</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>142</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>143</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
